--- a/biology/Médecine/Albert_Puech/Albert_Puech.xlsx
+++ b/biology/Médecine/Albert_Puech/Albert_Puech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Puech est un médecin et historien local français.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Puech naît en 1833 au Cailar[1].
-Après avoir soutenu sa thèse d'exercice en 1858[2], il devient médecin général de l'Hôtel-Dieu et du lycée de Nîmes[1].
-Élu à l'Académie du Gard en 1869[3] (devenue « de Nîmes » en 1878), il la préside en 1881. Il est aussi président de la Société de médecine de Nîmes[1].
-Il donne de multiples travaux sur l'histoire sociale de Nîmes, l'histoire de la médecine, ou encore la généalogie de Jean Nicot[4].
-Il meurt le 1er janvier 1897[4] à Montpellier, où il s'était retiré[5].
-Il est le père de l'obstétricien Paul Puech, obstétricien à Montpellier[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Puech naît en 1833 au Cailar.
+Après avoir soutenu sa thèse d'exercice en 1858, il devient médecin général de l'Hôtel-Dieu et du lycée de Nîmes.
+Élu à l'Académie du Gard en 1869 (devenue « de Nîmes » en 1878), il la préside en 1881. Il est aussi président de la Société de médecine de Nîmes.
+Il donne de multiples travaux sur l'histoire sociale de Nîmes, l'histoire de la médecine, ou encore la généalogie de Jean Nicot.
+Il meurt le 1er janvier 1897 à Montpellier, où il s'était retiré.
+Il est le père de l'obstétricien Paul Puech, obstétricien à Montpellier.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Médecins d'autrefois à Nîmes, Paris, Savy, 1879 (BNF 31157638).
 Les Chirurgiens d'autrefois à Nîmes, Paris, Savy, 1880 (BNF 31157630).
@@ -580,7 +596,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Huguier de l'Académie de médecine 1878.</t>
         </is>
